--- a/ffinst/StructureDefinition-KLToolsWHO5ObservationCalm2.xlsx
+++ b/ffinst/StructureDefinition-KLToolsWHO5ObservationCalm2.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-26T16:24:28+02:00</t>
+    <t>2023-08-27T11:00:49+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
